--- a/dataSet/win_server_2003_MGTV.xlsx
+++ b/dataSet/win_server_2003_MGTV.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BFA808-B711-4BFC-BF04-7DC10C5435AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +16,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -57,8 +54,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -68,6 +66,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -116,7 +117,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -149,9 +150,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,6 +202,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,199 +394,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>3</v>
-      </c>
-      <c r="B1">
-        <v>8</v>
-      </c>
-      <c r="C1">
-        <v>9</v>
-      </c>
-      <c r="D1">
-        <v>12</v>
-      </c>
-      <c r="E1">
-        <v>13</v>
-      </c>
-      <c r="F1">
-        <v>14</v>
-      </c>
-      <c r="G1">
-        <v>16</v>
-      </c>
-      <c r="H1">
-        <v>27</v>
-      </c>
-      <c r="I1">
-        <v>31</v>
-      </c>
-      <c r="J1">
-        <v>36</v>
-      </c>
-      <c r="K1">
-        <v>47</v>
-      </c>
-      <c r="L1">
-        <v>51</v>
-      </c>
-      <c r="M1">
-        <v>56</v>
+    <row r="1" spans="1:80" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>3.6734817897723202</v>
+      </c>
+      <c r="B1" s="1">
+        <v>5.30621000184117</v>
+      </c>
+      <c r="C1" s="1">
+        <v>7.4048081239199304</v>
+      </c>
+      <c r="D1" s="1">
+        <v>10.018505313436799</v>
+      </c>
+      <c r="E1" s="1">
+        <v>13.1834773988416</v>
+      </c>
+      <c r="F1" s="1">
+        <v>16.921154908977702</v>
+      </c>
+      <c r="G1" s="1">
+        <v>21.2377765193859</v>
+      </c>
+      <c r="H1" s="1">
+        <v>26.125036859916602</v>
+      </c>
+      <c r="I1" s="1">
+        <v>31.561575994235898</v>
+      </c>
+      <c r="J1" s="1">
+        <v>37.515017999461101</v>
+      </c>
+      <c r="K1" s="1">
+        <v>43.944276315506897</v>
+      </c>
+      <c r="L1" s="1">
+        <v>50.801887084356302</v>
+      </c>
+      <c r="M1" s="1">
+        <v>58.036191814458903</v>
       </c>
       <c r="N1">
-        <v>68</v>
+        <v>65.5932538244748</v>
       </c>
       <c r="O1">
-        <v>74</v>
+        <v>73.418449847343297</v>
       </c>
       <c r="P1">
-        <v>82</v>
+        <v>81.457723916215201</v>
       </c>
       <c r="Q1">
-        <v>89</v>
+        <v>89.658523548382206</v>
       </c>
       <c r="R1">
-        <v>95</v>
+        <v>97.970458886228201</v>
       </c>
       <c r="S1">
-        <v>104</v>
+        <v>106.345735705808</v>
       </c>
       <c r="T1">
-        <v>126</v>
+        <v>114.739415433616</v>
       </c>
       <c r="U1">
-        <v>129</v>
+        <v>123.109551899493</v>
       </c>
       <c r="V1">
-        <v>134</v>
+        <v>131.41724760763501</v>
       </c>
       <c r="W1">
-        <v>136</v>
+        <v>139.626663549272</v>
       </c>
       <c r="X1">
-        <v>146</v>
+        <v>147.70500732599299</v>
       </c>
       <c r="Y1">
-        <v>152</v>
+        <v>155.622515549431</v>
       </c>
       <c r="Z1">
-        <v>156</v>
+        <v>163.352438767199</v>
       </c>
       <c r="AA1">
-        <v>164</v>
+        <v>170.871030918142</v>
       </c>
       <c r="AB1">
-        <v>171</v>
+        <v>178.15754071971901</v>
       </c>
       <c r="AC1">
-        <v>172</v>
+        <v>185.19419945054801</v>
       </c>
       <c r="AD1">
-        <v>179</v>
+        <v>191.96619819680899</v>
       </c>
       <c r="AE1">
-        <v>213</v>
+        <v>198.46164756884701</v>
       </c>
       <c r="AF1">
-        <v>219</v>
+        <v>204.67151388340699</v>
       </c>
       <c r="AG1">
-        <v>221</v>
+        <v>210.58952752994</v>
       </c>
       <c r="AH1">
-        <v>228</v>
+        <v>216.21206137372599</v>
       </c>
       <c r="AI1">
-        <v>234</v>
+        <v>221.53797929392499</v>
       </c>
       <c r="AJ1">
-        <v>238</v>
+        <v>226.56845705714201</v>
       </c>
       <c r="AK1">
-        <v>239</v>
+        <v>231.306779494837</v>
       </c>
       <c r="AL1">
-        <v>241</v>
+        <v>235.75811926355499</v>
       </c>
       <c r="AM1">
-        <v>243</v>
+        <v>239.92930326676799</v>
       </c>
       <c r="AN1">
-        <v>247</v>
+        <v>243.82857311257101</v>
       </c>
       <c r="AO1">
-        <v>250</v>
+        <v>247.465345826152</v>
       </c>
       <c r="AP1">
-        <v>257</v>
+        <v>250.84998051502399</v>
       </c>
       <c r="AQ1">
-        <v>261</v>
+        <v>253.993555899434</v>
       </c>
       <c r="AR1">
-        <v>272</v>
+        <v>256.90766267332998</v>
       </c>
       <c r="AS1">
-        <v>280</v>
+        <v>259.60421364783798</v>
       </c>
       <c r="AT1">
-        <v>281</v>
+        <v>262.09527362860899</v>
       </c>
       <c r="AU1">
-        <v>281</v>
+        <v>264.39291005165899</v>
       </c>
       <c r="AV1">
-        <v>281</v>
+        <v>266.509064590234</v>
       </c>
       <c r="AW1">
-        <v>281</v>
+        <v>268.45544527117403</v>
       </c>
       <c r="AX1">
-        <v>281</v>
+        <v>270.24343811092001</v>
       </c>
       <c r="AY1">
-        <v>281</v>
+        <v>271.88403689505498</v>
       </c>
       <c r="AZ1">
-        <v>281</v>
+        <v>273.387789468893</v>
       </c>
       <c r="BA1">
-        <v>281</v>
+        <v>274.76475876315197</v>
       </c>
       <c r="BB1">
-        <v>281</v>
+        <v>276.02449672870199</v>
       </c>
       <c r="BC1">
-        <v>281</v>
+        <v>277.17602937797801</v>
       </c>
       <c r="BD1">
-        <v>284</v>
+        <v>278.22785120931798</v>
       </c>
       <c r="BE1">
-        <v>284</v>
+        <v>279.18792740752701</v>
       </c>
       <c r="BF1">
-        <v>284</v>
+        <v>280.06370235533598</v>
       </c>
       <c r="BG1">
-        <v>284</v>
+        <v>280.86211314443301</v>
       </c>
       <c r="BH1">
-        <v>284</v>
+        <v>281.589606932599</v>
       </c>
       <c r="BI1">
-        <v>284</v>
+        <v>282.25216114822098</v>
       </c>
       <c r="BJ1">
-        <v>284</v>
+        <v>282.85530569053901</v>
+      </c>
+      <c r="BK1">
+        <v>283.40414641014502</v>
+      </c>
+      <c r="BL1">
+        <v>283.90338927779698</v>
+      </c>
+      <c r="BM1">
+        <v>284.35736475968798</v>
+      </c>
+      <c r="BN1">
+        <v>284.77005201386697</v>
+      </c>
+      <c r="BO1">
+        <v>285.145102606092</v>
+      </c>
+      <c r="BP1">
+        <v>285.485863514713</v>
+      </c>
+      <c r="BQ1">
+        <v>285.795399254377</v>
+      </c>
+      <c r="BR1">
+        <v>286.07651299848902</v>
+      </c>
+      <c r="BS1">
+        <v>286.331766621631</v>
+      </c>
+      <c r="BT1">
+        <v>286.56349961666302</v>
+      </c>
+      <c r="BU1">
+        <v>286.77384686810097</v>
+      </c>
+      <c r="BV1">
+        <v>286.96475528451799</v>
+      </c>
+      <c r="BW1">
+        <v>287.13799930911398</v>
+      </c>
+      <c r="BX1">
+        <v>287.29519533995699</v>
+      </c>
+      <c r="BY1">
+        <v>287.43781510048302</v>
+      </c>
+      <c r="BZ1">
+        <v>287.56719800716098</v>
+      </c>
+      <c r="CA1">
+        <v>287.68456258544802</v>
+      </c>
+      <c r="CB1">
+        <v>287.791016987494</v>
       </c>
     </row>
   </sheetData>
@@ -561,7 +652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -574,7 +665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
